--- a/sources/tables/metal.xlsx
+++ b/sources/tables/metal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,34 +485,34 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>162.25</v>
+        <v>160.5</v>
       </c>
       <c r="D2" t="n">
-        <v>3.25</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>-0,16%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>0,00%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>7,00%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-63,47%</t>
+          <t>-63,16%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Sep/13</t>
+          <t>Sep/21</t>
         </is>
       </c>
     </row>
@@ -526,34 +526,34 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1907.2</v>
+        <v>1926.19</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9</v>
+        <v>6.62</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0,62%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0,30%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Sep/14</t>
+          <t>Sep/22</t>
         </is>
       </c>
     </row>
@@ -567,34 +567,34 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22.524</v>
+        <v>23.721</v>
       </c>
       <c r="D4" t="n">
-        <v>0.311</v>
+        <v>0.341</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-1,36%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-1,85%</t>
+          <t>3,10%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>-2,48%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>25,92%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Sep/14</t>
+          <t>Sep/22</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>189500</v>
+        <v>178500</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -620,22 +620,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-5,49%</t>
+          <t>-3,77%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-23,43%</t>
+          <t>-17,93%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-61,91%</t>
+          <t>-64,41%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Sep/13</t>
+          <t>Sep/21</t>
         </is>
       </c>
     </row>
@@ -649,34 +649,34 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>898.7</v>
+        <v>933.71</v>
       </c>
       <c r="D6" t="n">
-        <v>1.52</v>
+        <v>14.46</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0,50%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-0,64%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Sep/14</t>
+          <t>Sep/22</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Sep/13</t>
+          <t>Sep/21</t>
         </is>
       </c>
     </row>
@@ -731,34 +731,34 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2259.44</v>
+        <v>2197.05</v>
       </c>
       <c r="D8" t="n">
-        <v>4.56</v>
+        <v>17.95</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-0,20%</t>
+          <t>-0,81%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0,84%</t>
+          <t>-3,93%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>1,40%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Sep/13</t>
+          <t>Sep/21</t>
         </is>
       </c>
     </row>
@@ -772,34 +772,34 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2199</v>
+        <v>2237</v>
       </c>
       <c r="D9" t="n">
-        <v>6.5</v>
+        <v>25</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-4,93%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Sep/12</t>
+          <t>Sep/22</t>
         </is>
       </c>
     </row>
@@ -813,34 +813,34 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2508</v>
+        <v>2565</v>
       </c>
       <c r="D10" t="n">
-        <v>1.5</v>
+        <v>51</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-0,06%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-22,28%</t>
+          <t>-14,73%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Sep/12</t>
+          <t>Sep/22</t>
         </is>
       </c>
     </row>
@@ -854,34 +854,34 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19858</v>
+        <v>18869</v>
       </c>
       <c r="D11" t="n">
-        <v>175</v>
+        <v>458</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>-2,37%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-2,53%</t>
+          <t>-6,09%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>-6,88%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-17,89%</t>
+          <t>-22,93%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Sep/13</t>
+          <t>Sep/21</t>
         </is>
       </c>
     </row>
@@ -895,34 +895,34 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1257.1</v>
+        <v>1273.48</v>
       </c>
       <c r="D12" t="n">
-        <v>2.01</v>
+        <v>10.68</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-0,16%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>2,00%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>-0,05%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-41,14%</t>
+          <t>-38,39%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Sep/14</t>
+          <t>Sep/22</t>
         </is>
       </c>
     </row>
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>120.53</v>
+        <v>121.69</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>-0,11%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15,20%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Sep/13</t>
+          <t>Sep/21</t>
         </is>
       </c>
     </row>
@@ -973,24 +973,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Медь</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>8,417.00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>+0.31</t>
-        </is>
-      </c>
+          <t>Эн. уголь</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>121.65</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-0.008631319358816336</v>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -998,21 +998,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>кокс. уголь</t>
+          <t>Медь</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>290,25s</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>8,194.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>–1.82</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>кокс. уголь</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>300,00s</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
